--- a/test/data/model_compare_temp.xlsx
+++ b/test/data/model_compare_temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tian/Development/kb_apps/kb_model_analysis/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D48EF38-8774-4D45-A3BB-3EA858C75FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663D98E4-2B02-8045-BB0B-52538985ABE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31660" yWindow="-19300" windowWidth="27640" windowHeight="15440" xr2:uid="{9EBFDFC2-97C3-D34C-9333-67EBF91DD633}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="209">
   <si>
     <t>model_ref</t>
   </si>
@@ -175,16 +175,500 @@
   </si>
   <si>
     <t>bar_11</t>
+  </si>
+  <si>
+    <t>100/101/20</t>
+  </si>
+  <si>
+    <t>100/101/21</t>
+  </si>
+  <si>
+    <t>100/101/22</t>
+  </si>
+  <si>
+    <t>100/101/23</t>
+  </si>
+  <si>
+    <t>100/101/24</t>
+  </si>
+  <si>
+    <t>100/101/25</t>
+  </si>
+  <si>
+    <t>100/101/26</t>
+  </si>
+  <si>
+    <t>100/101/27</t>
+  </si>
+  <si>
+    <t>100/101/28</t>
+  </si>
+  <si>
+    <t>100/101/29</t>
+  </si>
+  <si>
+    <t>100/101/30</t>
+  </si>
+  <si>
+    <t>100/101/31</t>
+  </si>
+  <si>
+    <t>100/101/32</t>
+  </si>
+  <si>
+    <t>100/101/33</t>
+  </si>
+  <si>
+    <t>100/101/34</t>
+  </si>
+  <si>
+    <t>100/101/35</t>
+  </si>
+  <si>
+    <t>100/101/36</t>
+  </si>
+  <si>
+    <t>100/101/37</t>
+  </si>
+  <si>
+    <t>100/101/38</t>
+  </si>
+  <si>
+    <t>100/101/39</t>
+  </si>
+  <si>
+    <t>100/101/40</t>
+  </si>
+  <si>
+    <t>100/101/41</t>
+  </si>
+  <si>
+    <t>100/101/42</t>
+  </si>
+  <si>
+    <t>100/101/43</t>
+  </si>
+  <si>
+    <t>100/101/44</t>
+  </si>
+  <si>
+    <t>100/101/45</t>
+  </si>
+  <si>
+    <t>100/101/46</t>
+  </si>
+  <si>
+    <t>100/101/47</t>
+  </si>
+  <si>
+    <t>100/101/48</t>
+  </si>
+  <si>
+    <t>100/101/49</t>
+  </si>
+  <si>
+    <t>100/101/50</t>
+  </si>
+  <si>
+    <t>100/101/51</t>
+  </si>
+  <si>
+    <t>100/101/52</t>
+  </si>
+  <si>
+    <t>100/101/53</t>
+  </si>
+  <si>
+    <t>100/101/54</t>
+  </si>
+  <si>
+    <t>100/101/55</t>
+  </si>
+  <si>
+    <t>100/101/56</t>
+  </si>
+  <si>
+    <t>100/101/57</t>
+  </si>
+  <si>
+    <t>100/101/58</t>
+  </si>
+  <si>
+    <t>100/101/59</t>
+  </si>
+  <si>
+    <t>100/101/60</t>
+  </si>
+  <si>
+    <t>100/101/61</t>
+  </si>
+  <si>
+    <t>100/101/62</t>
+  </si>
+  <si>
+    <t>100/101/63</t>
+  </si>
+  <si>
+    <t>100/101/64</t>
+  </si>
+  <si>
+    <t>100/101/65</t>
+  </si>
+  <si>
+    <t>100/101/66</t>
+  </si>
+  <si>
+    <t>100/101/67</t>
+  </si>
+  <si>
+    <t>100/101/68</t>
+  </si>
+  <si>
+    <t>100/101/69</t>
+  </si>
+  <si>
+    <t>100/101/70</t>
+  </si>
+  <si>
+    <t>100/101/71</t>
+  </si>
+  <si>
+    <t>100/101/72</t>
+  </si>
+  <si>
+    <t>100/101/73</t>
+  </si>
+  <si>
+    <t>100/101/74</t>
+  </si>
+  <si>
+    <t>100/101/75</t>
+  </si>
+  <si>
+    <t>100/101/76</t>
+  </si>
+  <si>
+    <t>100/101/77</t>
+  </si>
+  <si>
+    <t>100/101/78</t>
+  </si>
+  <si>
+    <t>100/101/79</t>
+  </si>
+  <si>
+    <t>100/101/80</t>
+  </si>
+  <si>
+    <t>100/101/81</t>
+  </si>
+  <si>
+    <t>100/101/82</t>
+  </si>
+  <si>
+    <t>100/101/83</t>
+  </si>
+  <si>
+    <t>100/101/84</t>
+  </si>
+  <si>
+    <t>100/101/85</t>
+  </si>
+  <si>
+    <t>100/101/86</t>
+  </si>
+  <si>
+    <t>100/101/87</t>
+  </si>
+  <si>
+    <t>100/101/88</t>
+  </si>
+  <si>
+    <t>100/101/89</t>
+  </si>
+  <si>
+    <t>100/101/90</t>
+  </si>
+  <si>
+    <t>100/101/91</t>
+  </si>
+  <si>
+    <t>100/101/92</t>
+  </si>
+  <si>
+    <t>100/101/93</t>
+  </si>
+  <si>
+    <t>100/101/94</t>
+  </si>
+  <si>
+    <t>100/101/95</t>
+  </si>
+  <si>
+    <t>100/101/96</t>
+  </si>
+  <si>
+    <t>100/101/97</t>
+  </si>
+  <si>
+    <t>100/101/98</t>
+  </si>
+  <si>
+    <t>100/101/99</t>
+  </si>
+  <si>
+    <t>foo_17</t>
+  </si>
+  <si>
+    <t>foo_18</t>
+  </si>
+  <si>
+    <t>foo_19</t>
+  </si>
+  <si>
+    <t>foo_20</t>
+  </si>
+  <si>
+    <t>foo_21</t>
+  </si>
+  <si>
+    <t>foo_22</t>
+  </si>
+  <si>
+    <t>foo_23</t>
+  </si>
+  <si>
+    <t>foo_24</t>
+  </si>
+  <si>
+    <t>foo_25</t>
+  </si>
+  <si>
+    <t>foo_26</t>
+  </si>
+  <si>
+    <t>foo_27</t>
+  </si>
+  <si>
+    <t>foo_28</t>
+  </si>
+  <si>
+    <t>foo_29</t>
+  </si>
+  <si>
+    <t>foo_30</t>
+  </si>
+  <si>
+    <t>foo_31</t>
+  </si>
+  <si>
+    <t>foo_32</t>
+  </si>
+  <si>
+    <t>foo_33</t>
+  </si>
+  <si>
+    <t>foo_34</t>
+  </si>
+  <si>
+    <t>foo_35</t>
+  </si>
+  <si>
+    <t>foo_36</t>
+  </si>
+  <si>
+    <t>foo_37</t>
+  </si>
+  <si>
+    <t>foo_38</t>
+  </si>
+  <si>
+    <t>foo_39</t>
+  </si>
+  <si>
+    <t>foo_40</t>
+  </si>
+  <si>
+    <t>foo_41</t>
+  </si>
+  <si>
+    <t>foo_42</t>
+  </si>
+  <si>
+    <t>foo_43</t>
+  </si>
+  <si>
+    <t>foo_44</t>
+  </si>
+  <si>
+    <t>foo_45</t>
+  </si>
+  <si>
+    <t>foo_46</t>
+  </si>
+  <si>
+    <t>foo_47</t>
+  </si>
+  <si>
+    <t>foo_48</t>
+  </si>
+  <si>
+    <t>foo_49</t>
+  </si>
+  <si>
+    <t>foo_50</t>
+  </si>
+  <si>
+    <t>foo_51</t>
+  </si>
+  <si>
+    <t>foo_52</t>
+  </si>
+  <si>
+    <t>foo_53</t>
+  </si>
+  <si>
+    <t>foo_54</t>
+  </si>
+  <si>
+    <t>foo_55</t>
+  </si>
+  <si>
+    <t>foo_56</t>
+  </si>
+  <si>
+    <t>foo_57</t>
+  </si>
+  <si>
+    <t>foo_58</t>
+  </si>
+  <si>
+    <t>foo_59</t>
+  </si>
+  <si>
+    <t>foo_60</t>
+  </si>
+  <si>
+    <t>foo_61</t>
+  </si>
+  <si>
+    <t>foo_62</t>
+  </si>
+  <si>
+    <t>foo_63</t>
+  </si>
+  <si>
+    <t>foo_64</t>
+  </si>
+  <si>
+    <t>foo_65</t>
+  </si>
+  <si>
+    <t>foo_66</t>
+  </si>
+  <si>
+    <t>foo_67</t>
+  </si>
+  <si>
+    <t>foo_68</t>
+  </si>
+  <si>
+    <t>foo_69</t>
+  </si>
+  <si>
+    <t>foo_70</t>
+  </si>
+  <si>
+    <t>foo_71</t>
+  </si>
+  <si>
+    <t>foo_72</t>
+  </si>
+  <si>
+    <t>foo_73</t>
+  </si>
+  <si>
+    <t>foo_74</t>
+  </si>
+  <si>
+    <t>foo_75</t>
+  </si>
+  <si>
+    <t>foo_76</t>
+  </si>
+  <si>
+    <t>foo_77</t>
+  </si>
+  <si>
+    <t>foo_78</t>
+  </si>
+  <si>
+    <t>foo_79</t>
+  </si>
+  <si>
+    <t>foo_80</t>
+  </si>
+  <si>
+    <t>foo_81</t>
+  </si>
+  <si>
+    <t>foo_82</t>
+  </si>
+  <si>
+    <t>foo_83</t>
+  </si>
+  <si>
+    <t>foo_84</t>
+  </si>
+  <si>
+    <t>foo_85</t>
+  </si>
+  <si>
+    <t>foo_86</t>
+  </si>
+  <si>
+    <t>foo_87</t>
+  </si>
+  <si>
+    <t>foo_88</t>
+  </si>
+  <si>
+    <t>foo_89</t>
+  </si>
+  <si>
+    <t>foo_90</t>
+  </si>
+  <si>
+    <t>foo_91</t>
+  </si>
+  <si>
+    <t>foo_92</t>
+  </si>
+  <si>
+    <t>foo_93</t>
+  </si>
+  <si>
+    <t>foo_94</t>
+  </si>
+  <si>
+    <t>foo_95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -210,9 +694,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E1FAB9-4FC5-7446-B2B4-3945FFF6B380}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,244 +1280,1016 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" t="s">
+        <v>136</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" t="s">
+        <v>141</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/data/model_compare_temp.xlsx
+++ b/test/data/model_compare_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tian/Development/kb_apps/kb_model_analysis/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663D98E4-2B02-8045-BB0B-52538985ABE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB85F72-98F9-7B4E-92C5-04A8374B774A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31660" yWindow="-19300" windowWidth="27640" windowHeight="15440" xr2:uid="{9EBFDFC2-97C3-D34C-9333-67EBF91DD633}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{9EBFDFC2-97C3-D34C-9333-67EBF91DD633}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,60 +57,6 @@
     <t>metadata_2</t>
   </si>
   <si>
-    <t>100/101/2</t>
-  </si>
-  <si>
-    <t>100/101/3</t>
-  </si>
-  <si>
-    <t>100/101/4</t>
-  </si>
-  <si>
-    <t>100/101/5</t>
-  </si>
-  <si>
-    <t>100/101/6</t>
-  </si>
-  <si>
-    <t>100/101/7</t>
-  </si>
-  <si>
-    <t>100/101/8</t>
-  </si>
-  <si>
-    <t>100/101/9</t>
-  </si>
-  <si>
-    <t>100/101/10</t>
-  </si>
-  <si>
-    <t>100/101/11</t>
-  </si>
-  <si>
-    <t>100/101/12</t>
-  </si>
-  <si>
-    <t>100/101/13</t>
-  </si>
-  <si>
-    <t>100/101/14</t>
-  </si>
-  <si>
-    <t>100/101/15</t>
-  </si>
-  <si>
-    <t>100/101/16</t>
-  </si>
-  <si>
-    <t>100/101/17</t>
-  </si>
-  <si>
-    <t>100/101/18</t>
-  </si>
-  <si>
-    <t>100/101/19</t>
-  </si>
-  <si>
     <t>foo_3</t>
   </si>
   <si>
@@ -177,246 +123,6 @@
     <t>bar_11</t>
   </si>
   <si>
-    <t>100/101/20</t>
-  </si>
-  <si>
-    <t>100/101/21</t>
-  </si>
-  <si>
-    <t>100/101/22</t>
-  </si>
-  <si>
-    <t>100/101/23</t>
-  </si>
-  <si>
-    <t>100/101/24</t>
-  </si>
-  <si>
-    <t>100/101/25</t>
-  </si>
-  <si>
-    <t>100/101/26</t>
-  </si>
-  <si>
-    <t>100/101/27</t>
-  </si>
-  <si>
-    <t>100/101/28</t>
-  </si>
-  <si>
-    <t>100/101/29</t>
-  </si>
-  <si>
-    <t>100/101/30</t>
-  </si>
-  <si>
-    <t>100/101/31</t>
-  </si>
-  <si>
-    <t>100/101/32</t>
-  </si>
-  <si>
-    <t>100/101/33</t>
-  </si>
-  <si>
-    <t>100/101/34</t>
-  </si>
-  <si>
-    <t>100/101/35</t>
-  </si>
-  <si>
-    <t>100/101/36</t>
-  </si>
-  <si>
-    <t>100/101/37</t>
-  </si>
-  <si>
-    <t>100/101/38</t>
-  </si>
-  <si>
-    <t>100/101/39</t>
-  </si>
-  <si>
-    <t>100/101/40</t>
-  </si>
-  <si>
-    <t>100/101/41</t>
-  </si>
-  <si>
-    <t>100/101/42</t>
-  </si>
-  <si>
-    <t>100/101/43</t>
-  </si>
-  <si>
-    <t>100/101/44</t>
-  </si>
-  <si>
-    <t>100/101/45</t>
-  </si>
-  <si>
-    <t>100/101/46</t>
-  </si>
-  <si>
-    <t>100/101/47</t>
-  </si>
-  <si>
-    <t>100/101/48</t>
-  </si>
-  <si>
-    <t>100/101/49</t>
-  </si>
-  <si>
-    <t>100/101/50</t>
-  </si>
-  <si>
-    <t>100/101/51</t>
-  </si>
-  <si>
-    <t>100/101/52</t>
-  </si>
-  <si>
-    <t>100/101/53</t>
-  </si>
-  <si>
-    <t>100/101/54</t>
-  </si>
-  <si>
-    <t>100/101/55</t>
-  </si>
-  <si>
-    <t>100/101/56</t>
-  </si>
-  <si>
-    <t>100/101/57</t>
-  </si>
-  <si>
-    <t>100/101/58</t>
-  </si>
-  <si>
-    <t>100/101/59</t>
-  </si>
-  <si>
-    <t>100/101/60</t>
-  </si>
-  <si>
-    <t>100/101/61</t>
-  </si>
-  <si>
-    <t>100/101/62</t>
-  </si>
-  <si>
-    <t>100/101/63</t>
-  </si>
-  <si>
-    <t>100/101/64</t>
-  </si>
-  <si>
-    <t>100/101/65</t>
-  </si>
-  <si>
-    <t>100/101/66</t>
-  </si>
-  <si>
-    <t>100/101/67</t>
-  </si>
-  <si>
-    <t>100/101/68</t>
-  </si>
-  <si>
-    <t>100/101/69</t>
-  </si>
-  <si>
-    <t>100/101/70</t>
-  </si>
-  <si>
-    <t>100/101/71</t>
-  </si>
-  <si>
-    <t>100/101/72</t>
-  </si>
-  <si>
-    <t>100/101/73</t>
-  </si>
-  <si>
-    <t>100/101/74</t>
-  </si>
-  <si>
-    <t>100/101/75</t>
-  </si>
-  <si>
-    <t>100/101/76</t>
-  </si>
-  <si>
-    <t>100/101/77</t>
-  </si>
-  <si>
-    <t>100/101/78</t>
-  </si>
-  <si>
-    <t>100/101/79</t>
-  </si>
-  <si>
-    <t>100/101/80</t>
-  </si>
-  <si>
-    <t>100/101/81</t>
-  </si>
-  <si>
-    <t>100/101/82</t>
-  </si>
-  <si>
-    <t>100/101/83</t>
-  </si>
-  <si>
-    <t>100/101/84</t>
-  </si>
-  <si>
-    <t>100/101/85</t>
-  </si>
-  <si>
-    <t>100/101/86</t>
-  </si>
-  <si>
-    <t>100/101/87</t>
-  </si>
-  <si>
-    <t>100/101/88</t>
-  </si>
-  <si>
-    <t>100/101/89</t>
-  </si>
-  <si>
-    <t>100/101/90</t>
-  </si>
-  <si>
-    <t>100/101/91</t>
-  </si>
-  <si>
-    <t>100/101/92</t>
-  </si>
-  <si>
-    <t>100/101/93</t>
-  </si>
-  <si>
-    <t>100/101/94</t>
-  </si>
-  <si>
-    <t>100/101/95</t>
-  </si>
-  <si>
-    <t>100/101/96</t>
-  </si>
-  <si>
-    <t>100/101/97</t>
-  </si>
-  <si>
-    <t>100/101/98</t>
-  </si>
-  <si>
-    <t>100/101/99</t>
-  </si>
-  <si>
     <t>foo_17</t>
   </si>
   <si>
@@ -652,6 +358,300 @@
   </si>
   <si>
     <t>foo_95</t>
+  </si>
+  <si>
+    <t>100/102/2</t>
+  </si>
+  <si>
+    <t>100/103/3</t>
+  </si>
+  <si>
+    <t>100/126</t>
+  </si>
+  <si>
+    <t>100/127</t>
+  </si>
+  <si>
+    <t>100/128</t>
+  </si>
+  <si>
+    <t>100/129</t>
+  </si>
+  <si>
+    <t>100/130</t>
+  </si>
+  <si>
+    <t>100/131</t>
+  </si>
+  <si>
+    <t>100/132</t>
+  </si>
+  <si>
+    <t>100/133</t>
+  </si>
+  <si>
+    <t>100/134</t>
+  </si>
+  <si>
+    <t>100/135</t>
+  </si>
+  <si>
+    <t>100/136</t>
+  </si>
+  <si>
+    <t>100/137</t>
+  </si>
+  <si>
+    <t>100/138</t>
+  </si>
+  <si>
+    <t>100/139</t>
+  </si>
+  <si>
+    <t>100/140</t>
+  </si>
+  <si>
+    <t>100/141</t>
+  </si>
+  <si>
+    <t>100/142</t>
+  </si>
+  <si>
+    <t>100/143</t>
+  </si>
+  <si>
+    <t>100/144</t>
+  </si>
+  <si>
+    <t>100/145</t>
+  </si>
+  <si>
+    <t>100/146</t>
+  </si>
+  <si>
+    <t>100/147</t>
+  </si>
+  <si>
+    <t>100/148</t>
+  </si>
+  <si>
+    <t>100/149</t>
+  </si>
+  <si>
+    <t>100/150</t>
+  </si>
+  <si>
+    <t>100/151</t>
+  </si>
+  <si>
+    <t>100/152</t>
+  </si>
+  <si>
+    <t>100/153</t>
+  </si>
+  <si>
+    <t>100/154</t>
+  </si>
+  <si>
+    <t>100/155</t>
+  </si>
+  <si>
+    <t>100/156</t>
+  </si>
+  <si>
+    <t>100/157</t>
+  </si>
+  <si>
+    <t>100/158</t>
+  </si>
+  <si>
+    <t>100/159</t>
+  </si>
+  <si>
+    <t>100/160</t>
+  </si>
+  <si>
+    <t>100/161</t>
+  </si>
+  <si>
+    <t>100/162</t>
+  </si>
+  <si>
+    <t>100/163</t>
+  </si>
+  <si>
+    <t>100/164</t>
+  </si>
+  <si>
+    <t>100/165</t>
+  </si>
+  <si>
+    <t>100/166</t>
+  </si>
+  <si>
+    <t>100/167</t>
+  </si>
+  <si>
+    <t>100/168</t>
+  </si>
+  <si>
+    <t>100/169</t>
+  </si>
+  <si>
+    <t>100/170</t>
+  </si>
+  <si>
+    <t>100/171</t>
+  </si>
+  <si>
+    <t>100/172</t>
+  </si>
+  <si>
+    <t>100/173</t>
+  </si>
+  <si>
+    <t>100/174</t>
+  </si>
+  <si>
+    <t>100/175</t>
+  </si>
+  <si>
+    <t>100/176</t>
+  </si>
+  <si>
+    <t>100/177</t>
+  </si>
+  <si>
+    <t>100/178</t>
+  </si>
+  <si>
+    <t>100/179</t>
+  </si>
+  <si>
+    <t>100/180</t>
+  </si>
+  <si>
+    <t>100/181</t>
+  </si>
+  <si>
+    <t>100/182</t>
+  </si>
+  <si>
+    <t>100/183</t>
+  </si>
+  <si>
+    <t>100/184</t>
+  </si>
+  <si>
+    <t>100/185</t>
+  </si>
+  <si>
+    <t>100/186</t>
+  </si>
+  <si>
+    <t>100/187</t>
+  </si>
+  <si>
+    <t>100/188</t>
+  </si>
+  <si>
+    <t>100/189</t>
+  </si>
+  <si>
+    <t>100/190</t>
+  </si>
+  <si>
+    <t>100/191</t>
+  </si>
+  <si>
+    <t>100/192</t>
+  </si>
+  <si>
+    <t>100/193</t>
+  </si>
+  <si>
+    <t>100/194</t>
+  </si>
+  <si>
+    <t>100/195</t>
+  </si>
+  <si>
+    <t>100/196</t>
+  </si>
+  <si>
+    <t>100/197</t>
+  </si>
+  <si>
+    <t>100/198</t>
+  </si>
+  <si>
+    <t>100/199</t>
+  </si>
+  <si>
+    <t>100/104/2</t>
+  </si>
+  <si>
+    <t>100/105/2</t>
+  </si>
+  <si>
+    <t>100/106/2</t>
+  </si>
+  <si>
+    <t>100/107/2</t>
+  </si>
+  <si>
+    <t>100/108/2</t>
+  </si>
+  <si>
+    <t>100/109/2</t>
+  </si>
+  <si>
+    <t>100/110/2</t>
+  </si>
+  <si>
+    <t>100/111/2</t>
+  </si>
+  <si>
+    <t>100/112/2</t>
+  </si>
+  <si>
+    <t>100/113/2</t>
+  </si>
+  <si>
+    <t>100/114/2</t>
+  </si>
+  <si>
+    <t>100/115/2</t>
+  </si>
+  <si>
+    <t>100/116/2</t>
+  </si>
+  <si>
+    <t>100/117/2</t>
+  </si>
+  <si>
+    <t>100/118/2</t>
+  </si>
+  <si>
+    <t>100/119/2</t>
+  </si>
+  <si>
+    <t>100/120/2</t>
+  </si>
+  <si>
+    <t>100/121/2</t>
+  </si>
+  <si>
+    <t>100/122/2</t>
+  </si>
+  <si>
+    <t>100/123/2</t>
+  </si>
+  <si>
+    <t>100/124/2</t>
+  </si>
+  <si>
+    <t>100/125/2</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E1FAB9-4FC5-7446-B2B4-3945FFF6B380}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1100,68 +1100,68 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1169,193 +1169,193 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -1363,182 +1363,182 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -1546,185 +1546,185 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -1732,155 +1732,155 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>8</v>
@@ -1888,144 +1888,144 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -2033,136 +2033,136 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="B84" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="D86" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="C87" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="D88" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="D89" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>8</v>
@@ -2170,125 +2170,125 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="C98" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="B99" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="B100" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/model_compare_temp.xlsx
+++ b/test/data/model_compare_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tian/Development/kb_apps/kb_model_analysis/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D76B232-C15A-284F-8316-67CD17A5EA4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76CE0EB-FA1F-764E-ADF7-966107023C8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{9EBFDFC2-97C3-D34C-9333-67EBF91DD633}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15440" xr2:uid="{9EBFDFC2-97C3-D34C-9333-67EBF91DD633}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>metadata_3</t>
   </si>
   <si>
-    <t>100/101/1</t>
-  </si>
-  <si>
     <t>foo_1</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>100/119/2</t>
+  </si>
+  <si>
+    <t>100/101/2</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -559,247 +559,247 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
